--- a/College Basketball/NCAA Tourney Projections 2024.xlsx
+++ b/College Basketball/NCAA Tourney Projections 2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c18822d7041323b/Documents/GitHub/Beyond_The_Score/College Basketball/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smben\Google Drive\Analytics\Forecasting\NCAA BB\2023-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{F4850533-3CD1-44C1-A939-B952749EFD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B888F161-0368-4667-B501-9BC47A13651B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4850533-3CD1-44C1-A939-B952749EFD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5963" yWindow="338" windowWidth="16875" windowHeight="10432" activeTab="3" xr2:uid="{34982FF0-A61B-4379-9DFA-107AD64F8BB2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{34982FF0-A61B-4379-9DFA-107AD64F8BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Win Prob" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="123">
   <si>
     <t>Wagner</t>
   </si>
@@ -463,12 +463,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,7 +478,217 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -817,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6558B4-A9E4-4FD2-B558-A62531072D80}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -847,8 +1058,9 @@
       <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>109</v>
+      <c r="C2" t="str">
+        <f>_xlfn.CONCAT(A2, " vs. ", B2)</f>
+        <v>Wagner vs. Howard</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -864,8 +1076,9 @@
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>80</v>
+      <c r="C3" t="str">
+        <f>_xlfn.CONCAT(A3, " vs. ", B3)</f>
+        <v>Virginia vs. Colorado State</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -881,8 +1094,9 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>103</v>
+      <c r="C4" t="str">
+        <f>_xlfn.CONCAT(A4, " vs. ", B4)</f>
+        <v>Montana State vs. Grambling</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
@@ -898,8 +1112,9 @@
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
-        <v>96</v>
+      <c r="C5" t="str">
+        <f>_xlfn.CONCAT(A5, " vs. ", B5)</f>
+        <v>Boise State vs. Colorado</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -915,8 +1130,9 @@
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>88</v>
+      <c r="C6" t="str">
+        <f>_xlfn.CONCAT(A6, " vs. ", B6)</f>
+        <v>Mississippi State vs. Michigan State</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -932,8 +1148,9 @@
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
-        <v>105</v>
+      <c r="C7" t="str">
+        <f>_xlfn.CONCAT(A7, " vs. ", B7)</f>
+        <v>BYU vs. Duquesne</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
@@ -949,8 +1166,9 @@
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>79</v>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT(A8, " vs. ", B8)</f>
+        <v>Creighton vs. Akron</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -966,8 +1184,9 @@
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>87</v>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT(A9, " vs. ", B9)</f>
+        <v>Arizona vs. Long Beach State</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -983,8 +1202,9 @@
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>95</v>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT(A10, " vs. ", B10)</f>
+        <v>North Carolina vs. Wagner</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1000,8 +1220,9 @@
       <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
-        <v>93</v>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT(A11, " vs. ", B11)</f>
+        <v>Illinois vs. Morehead State</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1017,8 +1238,9 @@
       <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
-        <v>81</v>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT(A12, " vs. ", B12)</f>
+        <v>South Carolina vs. Oregon</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1034,8 +1256,9 @@
       <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
-        <v>85</v>
+      <c r="C13" t="str">
+        <f>_xlfn.CONCAT(A13, " vs. ", B13)</f>
+        <v>Dayton vs. Nevada</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1051,8 +1274,9 @@
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>78</v>
+      <c r="C14" t="str">
+        <f>_xlfn.CONCAT(A14, " vs. ", B14)</f>
+        <v>Texas vs. Virginia</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1068,8 +1292,9 @@
       <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
-        <v>94</v>
+      <c r="C15" t="str">
+        <f>_xlfn.CONCAT(A15, " vs. ", B15)</f>
+        <v>Kentucky vs. Oakland</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1085,8 +1310,9 @@
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
-        <v>102</v>
+      <c r="C16" t="str">
+        <f>_xlfn.CONCAT(A16, " vs. ", B16)</f>
+        <v>Gonzaga vs. McNeese</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -1102,8 +1328,9 @@
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
-        <v>104</v>
+      <c r="C17" t="str">
+        <f>_xlfn.CONCAT(A17, " vs. ", B17)</f>
+        <v>Iowa State vs. South Dakota State</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -1119,8 +1346,9 @@
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
-        <v>98</v>
+      <c r="C18" t="str">
+        <f>_xlfn.CONCAT(A18, " vs. ", B18)</f>
+        <v>Tennessee vs. Saint Peter's</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1136,8 +1364,9 @@
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
-        <v>97</v>
+      <c r="C19" t="str">
+        <f>_xlfn.CONCAT(A19, " vs. ", B19)</f>
+        <v>Texas Tech vs. NC State</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
@@ -1153,8 +1382,9 @@
       <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
-        <v>77</v>
+      <c r="C20" t="str">
+        <f>_xlfn.CONCAT(A20, " vs. ", B20)</f>
+        <v>Kansas vs. Samford</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -1170,8 +1400,9 @@
       <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
-        <v>92</v>
+      <c r="C21" t="str">
+        <f>_xlfn.CONCAT(A21, " vs. ", B21)</f>
+        <v>Washington State vs. Drake</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -1187,8 +1418,9 @@
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
-        <v>90</v>
+      <c r="C22" t="str">
+        <f>_xlfn.CONCAT(A22, " vs. ", B22)</f>
+        <v>Florida Atlantic vs. Northwestern</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1204,8 +1436,9 @@
       <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
-        <v>75</v>
+      <c r="C23" t="str">
+        <f>_xlfn.CONCAT(A23, " vs. ", B23)</f>
+        <v>Baylor vs. Colgate</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -1221,8 +1454,9 @@
       <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
-        <v>76</v>
+      <c r="C24" t="str">
+        <f>_xlfn.CONCAT(A24, " vs. ", B24)</f>
+        <v>San Diego State vs. UAB</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
@@ -1238,8 +1472,9 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
-        <v>107</v>
+      <c r="C25" t="str">
+        <f>_xlfn.CONCAT(A25, " vs. ", B25)</f>
+        <v>Marquette vs. Western Kentucky</v>
       </c>
       <c r="D25" t="s">
         <v>66</v>
@@ -1255,8 +1490,9 @@
       <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="s">
-        <v>91</v>
+      <c r="C26" t="str">
+        <f>_xlfn.CONCAT(A26, " vs. ", B26)</f>
+        <v>UConn vs. Stetson</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
@@ -1272,8 +1508,9 @@
       <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="s">
-        <v>73</v>
+      <c r="C27" t="str">
+        <f>_xlfn.CONCAT(A27, " vs. ", B27)</f>
+        <v>Clemson vs. New Mexico</v>
       </c>
       <c r="D27" t="s">
         <v>37</v>
@@ -1289,8 +1526,9 @@
       <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s">
-        <v>83</v>
+      <c r="C28" t="str">
+        <f>_xlfn.CONCAT(A28, " vs. ", B28)</f>
+        <v>Auburn vs. Yale</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
@@ -1306,8 +1544,9 @@
       <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C29" t="s">
-        <v>106</v>
+      <c r="C29" t="str">
+        <f>_xlfn.CONCAT(A29, " vs. ", B29)</f>
+        <v>Florida vs. Colorado</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -1323,8 +1562,9 @@
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
-        <v>108</v>
+      <c r="C30" t="str">
+        <f>_xlfn.CONCAT(A30, " vs. ", B30)</f>
+        <v>Florida vs. Boise State</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -1340,8 +1580,9 @@
       <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
-        <v>86</v>
+      <c r="C31" t="str">
+        <f>_xlfn.CONCAT(A31, " vs. ", B31)</f>
+        <v>Nebraska vs. Texas A&amp;M</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -1357,8 +1598,9 @@
       <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C32" t="s">
-        <v>82</v>
+      <c r="C32" t="str">
+        <f>_xlfn.CONCAT(A32, " vs. ", B32)</f>
+        <v>Duke vs. Vermont</v>
       </c>
       <c r="D32" t="s">
         <v>45</v>
@@ -1374,8 +1616,9 @@
       <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="C33" t="s">
-        <v>74</v>
+      <c r="C33" t="str">
+        <f>_xlfn.CONCAT(A33, " vs. ", B33)</f>
+        <v>Purdue vs. Grambling</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
@@ -1391,8 +1634,9 @@
       <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="C34" t="s">
-        <v>72</v>
+      <c r="C34" t="str">
+        <f>_xlfn.CONCAT(A34, " vs. ", B34)</f>
+        <v>Alabama vs. Charleston</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -1408,8 +1652,9 @@
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="C35" t="s">
-        <v>101</v>
+      <c r="C35" t="str">
+        <f>_xlfn.CONCAT(A35, " vs. ", B35)</f>
+        <v>Houston vs. Longwood</v>
       </c>
       <c r="D35" t="s">
         <v>61</v>
@@ -1425,8 +1670,9 @@
       <c r="B36" t="s">
         <v>65</v>
       </c>
-      <c r="C36" t="s">
-        <v>110</v>
+      <c r="C36" t="str">
+        <f>_xlfn.CONCAT(A36, " vs. ", B36)</f>
+        <v>Wisconsin vs. James Madison</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
@@ -1442,8 +1688,9 @@
       <c r="B37" t="s">
         <v>66</v>
       </c>
-      <c r="C37" t="s">
-        <v>89</v>
+      <c r="C37" t="str">
+        <f>_xlfn.CONCAT(A37, " vs. ", B37)</f>
+        <v>Utah State vs. TCU</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -1459,8 +1706,9 @@
       <c r="B38" t="s">
         <v>67</v>
       </c>
-      <c r="C38" t="s">
-        <v>84</v>
+      <c r="C38" t="str">
+        <f>_xlfn.CONCAT(A38, " vs. ", B38)</f>
+        <v>Saint Mary's vs. Grand Canyon</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -1476,8 +1724,9 @@
       <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="C39" t="s">
-        <v>99</v>
+      <c r="C39" t="str">
+        <f>_xlfn.CONCAT(A39, " vs. ", B39)</f>
+        <v>North Carolina vs. Howard</v>
       </c>
       <c r="D39" t="s">
         <v>39</v>
@@ -1493,8 +1742,9 @@
       <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="C40" t="s">
-        <v>100</v>
+      <c r="C40" t="str">
+        <f>_xlfn.CONCAT(A40, " vs. ", B40)</f>
+        <v>Texas vs. Colorado State</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
@@ -1998,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F0EBA4-A755-433F-82FB-4E0BB3DC6D55}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C40"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2704,11 +2954,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D40">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
-      <formula>B2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E2:E40">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -2719,16 +2964,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D40">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="notEqual">
+      <formula>B2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA03813E-1A6B-4F2C-8584-879D5743497F}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2743,14 +2993,14 @@
       <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -2813,7 +3063,7 @@
       <c r="C5" s="1">
         <v>0.52782376328450331</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="4">
@@ -2920,12 +3170,6 @@
       </c>
       <c r="E11" s="4">
         <v>-4.2383348437753323</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E25">
-        <f>4.3+25.8</f>
-        <v>30.1</v>
       </c>
     </row>
   </sheetData>
